--- a/アカウント登録_結合テスト.xlsx
+++ b/アカウント登録_結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/integration-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22A4172E-DD9E-4DFB-B70C-70850B0510B5}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F613D06-7C69-4F4E-B594-0FCE8D8CA19A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="118">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -299,16 +299,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.XAMPPのMySQLを停止の状態にする</t>
-    <rPh sb="14" eb="16">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.アカウント登録確認画面の「登録する」を押す</t>
     <rPh sb="7" eb="9">
       <t>トウロク</t>
@@ -979,77 +969,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>同じメールアドレスで登録できないようになっているか</t>
-    <rPh sb="0" eb="1">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.アカウント登録でメールアドレスを一度登録する</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.もう一度同じメールアドレスをアカウント登録画面で入力する</t>
-    <rPh sb="4" eb="6">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.アカウント登録確認画面の「登録する」を押す。</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同じメールアドレスは登録できないようになっている</t>
-    <rPh sb="0" eb="1">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ニックネームの入力値が表示されているか</t>
     <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
@@ -1902,16 +1821,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.ログインしない状態で、album-info.phpをURLに直打ちする</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>チョクウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>login.phpにリダイレクト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2000,6 +1909,26 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、account-regist-confirm.phpをURLに直打ちする</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>チョクウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2521,7 +2450,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A50:I53" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A47:I50" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{21F6D0F2-89C0-4CF9-A296-67198B77C610}" name="項目番号" headerRowDxfId="11" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{AEB5C6B5-993D-4495-8A63-42334E9EB635}" name="大項目" headerRowDxfId="9"/>
@@ -2873,7 +2802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -2892,7 +2821,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -2925,7 +2854,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2971,19 +2900,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -2993,7 +2922,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3006,7 +2935,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3022,19 +2951,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="G11" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -3044,7 +2973,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3057,7 +2986,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3073,19 +3002,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -3095,7 +3024,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3108,7 +3037,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3124,19 +3053,19 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -3146,7 +3075,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3159,7 +3088,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3175,19 +3104,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -3197,7 +3126,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3210,7 +3139,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3226,19 +3155,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -3248,7 +3177,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3261,7 +3190,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -3277,19 +3206,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -3299,7 +3228,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -3312,7 +3241,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3328,19 +3257,19 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G29" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -3350,7 +3279,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -3363,7 +3292,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -3379,19 +3308,19 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G32" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -3401,7 +3330,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -3414,7 +3343,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -3430,19 +3359,19 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G35" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -3452,7 +3381,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3465,7 +3394,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -3481,19 +3410,19 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G38" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -3503,7 +3432,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -3516,7 +3445,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -3532,19 +3461,19 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G41" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -3554,7 +3483,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3567,7 +3496,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3583,19 +3512,19 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G44" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -3605,7 +3534,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3618,7 +3547,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3634,19 +3563,19 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G47" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -3656,7 +3585,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3669,7 +3598,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3685,19 +3614,19 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G50" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -3707,7 +3636,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3720,7 +3649,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3736,19 +3665,19 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="4">
+        <v>45662</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" s="4">
-        <v>46002</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -3758,7 +3687,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -3771,7 +3700,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3787,19 +3716,19 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G56" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -3809,7 +3738,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3822,7 +3751,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -3844,13 +3773,13 @@
         <v>20</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G59" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -3876,19 +3805,19 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G61" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -3898,7 +3827,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -3914,19 +3843,19 @@
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G63" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I63" s="2"/>
     </row>
@@ -3956,10 +3885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72C48DE-86F6-464D-98C0-F818F0ED9625}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3977,7 +3906,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -4010,7 +3939,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4054,19 +3983,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -4076,7 +4005,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
@@ -4089,7 +4018,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4105,19 +4034,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -4127,7 +4056,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
@@ -4140,7 +4069,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4156,19 +4085,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -4178,7 +4107,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
@@ -4191,7 +4120,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4200,26 +4129,26 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -4229,7 +4158,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -4242,7 +4171,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4251,26 +4180,26 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -4280,7 +4209,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
@@ -4293,7 +4222,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -4302,26 +4231,26 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -4331,7 +4260,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
@@ -4344,7 +4273,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -4353,26 +4282,26 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -4382,7 +4311,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="4"/>
@@ -4395,7 +4324,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -4404,26 +4333,26 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -4433,7 +4362,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
@@ -4446,7 +4375,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -4455,26 +4384,26 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -4484,7 +4413,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
@@ -4497,7 +4426,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -4506,26 +4435,26 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -4535,7 +4464,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
@@ -4548,7 +4477,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -4557,26 +4486,26 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -4586,7 +4515,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
@@ -4599,7 +4528,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -4608,26 +4537,26 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G41" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I41" s="5"/>
     </row>
@@ -4637,175 +4566,124 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="5"/>
+      <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="2">
+        <v>13</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E43" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="4">
+        <v>45662</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2">
+        <v>14</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="4">
+        <v>45662</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2">
         <v>15</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="4">
-        <v>46002</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2">
-        <v>16</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="4">
-        <v>46002</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="E47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="4">
+        <v>45662</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2">
-        <v>8</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G48" s="4">
-        <v>46002</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2">
-        <v>3</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G50" s="4">
-        <v>46002</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4823,8 +4701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="79" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="B1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4842,7 +4720,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -4875,7 +4753,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4921,19 +4799,19 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G9" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -4943,7 +4821,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4959,19 +4837,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G11" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -4981,7 +4859,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4997,19 +4875,19 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G13" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -5033,19 +4911,19 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G15" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -5055,7 +4933,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -5074,16 +4952,16 @@
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G17" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -5095,7 +4973,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -5108,7 +4986,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -5124,19 +5002,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G20" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -5146,7 +5024,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -5159,7 +5037,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -5175,19 +5053,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G23" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -5197,7 +5075,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -5213,19 +5091,19 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G25" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -5249,19 +5127,19 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G27" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I27" s="2"/>
     </row>
